--- a/data/square_exponential_gpr_results.xlsx
+++ b/data/square_exponential_gpr_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.35502</v>
+        <v>0.503395</v>
       </c>
       <c r="B2" t="n">
-        <v>0.325897</v>
+        <v>0.360855</v>
       </c>
       <c r="C2" t="n">
-        <v>2.942556</v>
+        <v>0.255816</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
